--- a/gd/副本内容设计/第五、六章怪物分布.xlsx
+++ b/gd/副本内容设计/第五、六章怪物分布.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="201">
   <si>
     <t>小怪</t>
   </si>
@@ -757,6 +757,34 @@
   </si>
   <si>
     <t>伊芙利特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgBingyan3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击后反伤，物理法术攻击后概率嘲讽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽附加自身防御力上升</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +987,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,15 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,7 +1480,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1471,11 +1493,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
@@ -1507,7 +1529,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1527,7 +1549,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1567,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
@@ -1562,7 +1584,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
@@ -1580,7 +1602,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1620,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1629,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="25" t="s">
         <v>127</v>
       </c>
       <c r="H9" s="18"/>
@@ -1615,7 +1637,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
@@ -1633,7 +1655,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
@@ -1651,7 +1673,7 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1671,7 +1693,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +1711,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1728,7 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -1724,7 +1746,7 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -1742,7 +1764,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1759,7 +1781,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1798,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
@@ -2017,24 +2039,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H88"/>
+  <dimension ref="B1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="31"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="26" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -2043,137 +2067,94 @@
       <c r="D2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="30"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="26"/>
       <c r="C3" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="30"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="26"/>
       <c r="C4" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="30"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
       <c r="C5" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="30"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
       <c r="C6" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="30"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="26"/>
       <c r="C7" s="24"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="30"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="26"/>
       <c r="C8" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
       <c r="C9" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
       <c r="C10" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="26"/>
       <c r="C11" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="18" t="s">
         <v>78</v>
       </c>
@@ -2183,59 +2164,52 @@
       <c r="D14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C15" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C17" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C18" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C19" s="24"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C20" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" s="24" t="s">
         <v>101</v>
       </c>
@@ -2243,39 +2217,36 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C24" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="26" spans="2:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
         <v>193</v>
       </c>
@@ -2285,66 +2256,59 @@
       <c r="D27" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="32"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="18"/>
       <c r="C28" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="32"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="18"/>
       <c r="C29" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="18"/>
       <c r="C30" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="32"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="18"/>
       <c r="C31" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="18"/>
       <c r="C33" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="32"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="18"/>
       <c r="C34" s="24" t="s">
         <v>101</v>
       </c>
@@ -2352,40 +2316,37 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="32"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="18"/>
       <c r="C35" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="32"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="18"/>
       <c r="C36" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B37" s="32"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="18"/>
       <c r="C37" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="32"/>
-    </row>
-    <row r="39" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
         <v>192</v>
       </c>
@@ -2395,66 +2356,59 @@
       <c r="D39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="32"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="18"/>
       <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="18"/>
       <c r="C41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="32"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="18"/>
       <c r="C42" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="32"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="18"/>
       <c r="C43" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="32"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="18"/>
       <c r="C44" s="24"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="32"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="18"/>
       <c r="C45" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="18"/>
       <c r="C46" s="24" t="s">
         <v>101</v>
       </c>
@@ -2462,43 +2416,40 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="32"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="18"/>
       <c r="C47" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B48" s="32"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="18"/>
       <c r="C48" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="32"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="18"/>
       <c r="C49" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="32"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="32"/>
-    </row>
-    <row r="52" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="18" t="s">
         <v>191</v>
       </c>
@@ -2508,66 +2459,59 @@
       <c r="D52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="32"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="18"/>
       <c r="C53" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B54" s="32"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="18"/>
       <c r="C54" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="32"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="18"/>
       <c r="C55" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="32"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="18"/>
       <c r="C56" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B57" s="32"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57" s="18"/>
       <c r="C57" s="24"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B58" s="32"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" s="18"/>
       <c r="C58" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B59" s="32"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="18"/>
       <c r="C59" s="24" t="s">
         <v>101</v>
       </c>
@@ -2575,43 +2519,40 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B60" s="32"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="18"/>
       <c r="C60" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B61" s="32"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="18"/>
       <c r="C61" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B62" s="32"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="18"/>
       <c r="C62" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="32"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="32"/>
-    </row>
-    <row r="65" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="18" t="s">
         <v>190</v>
       </c>
@@ -2621,66 +2562,59 @@
       <c r="D65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="32"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="18"/>
       <c r="C66" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="32"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="18"/>
       <c r="C67" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="32"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="18"/>
       <c r="C68" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B69" s="32"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="18"/>
       <c r="C69" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="32"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="18"/>
       <c r="C70" s="24"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B71" s="32"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="18"/>
       <c r="C71" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B72" s="32"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="18"/>
       <c r="C72" s="24" t="s">
         <v>101</v>
       </c>
@@ -2688,43 +2622,40 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B73" s="32"/>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="18"/>
       <c r="C73" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B74" s="32"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="18"/>
       <c r="C74" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="32"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="18"/>
       <c r="C75" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B76" s="32"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B77" s="32"/>
-    </row>
-    <row r="78" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="18" t="s">
         <v>189</v>
       </c>
@@ -2734,62 +2665,55 @@
       <c r="D78" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B79" s="32"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" s="18"/>
       <c r="C79" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B80" s="32"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" s="18"/>
       <c r="C80" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B81" s="32"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="18"/>
       <c r="C81" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C82" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C83" s="24"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C84" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="85" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C85" s="24" t="s">
         <v>101</v>
       </c>
@@ -2797,32 +2721,116 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C86" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C87" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="10"/>
-    </row>
-    <row r="88" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C88" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="10"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C92" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C93" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C94" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C95" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C96" s="24"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C98" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C101" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/副本内容设计/第五、六章怪物分布.xlsx
+++ b/gd/副本内容设计/第五、六章怪物分布.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第5,6章布怪" sheetId="2" r:id="rId1"/>
     <sheet name="小怪技能逻辑" sheetId="3" r:id="rId2"/>
-    <sheet name="备忘" sheetId="1" r:id="rId3"/>
+    <sheet name="大boss技能逻辑" sheetId="4" r:id="rId3"/>
+    <sheet name="备忘" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="299">
   <si>
     <t>小怪</t>
   </si>
@@ -563,10 +564,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>驱散敌方增益buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>群体暗属性伤害几率附加禁止回血buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -764,27 +761,431 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击后反伤，物理法术攻击后概率嘲讽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>xgBingyan3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击后反伤，物理法术攻击后概率嘲讽</t>
+    <t>驱散敌方群体增益buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>群体嘲讽附加自身防御力上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容调整提示方向：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE可选</t>
+  </si>
+  <si>
+    <t>初始状态</t>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips提示（隐藏,图标显示为？号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜猜我在哪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find me</t>
+  </si>
+  <si>
+    <t>tips提示（显示）</t>
+  </si>
+  <si>
+    <t>打掉后显示为虚影状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点状态变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊米尔（Ymir）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我把你冻成冰雕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常状态1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左翅膀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>弱点血量</t>
+  </si>
+  <si>
+    <t>有限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤比</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜猜我在哪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掉后显示为虚影状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体/铠甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜猜我在哪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打掉后显示为虚影状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips提示（隐藏,图标显示为？号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%法攻水属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌方单体眩晕2回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害；若目标存在吹雪技能添加的stun buff则造成大伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0&lt;=n&lt;0.33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰龙每5回合（包括第0回合），随机生成一个数n（范围是0~1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结(显示mesh)</t>
+  </si>
+  <si>
+    <t>冻结(显示mesh)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33&lt;=n&lt;0.66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66&lt;=n&lt;=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>则弱点2,3置为隐藏显示mesh状态，其余弱点重置血量并为冻结状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>则弱点4置为隐藏显示mesh状态，其余弱点重置血量并为冻结状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>则弱点5置为隐藏显示mesh状态，其余弱点重置血量并为冻结状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技能1至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先级由低到高</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss处于状态1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5回合使用技能3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10回合使用技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊条件：若冰龙弱点2，3 or 4 or 5血量 =0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右翅膀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYimier1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYimier2</t>
+  </si>
+  <si>
+    <t>bossYimier3</t>
+  </si>
+  <si>
+    <t>bossYimier4</t>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底使用技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（每回合数除5余4回合）使用技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +1193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +1249,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -908,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +1405,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1419,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,6 +1453,691 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="C:\Users\snmad\Documents\Tencent Files\298113065\Image\C2C\NB{6F`4V}_TOX5B22@A3GLB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="381000"/>
+          <a:ext cx="2562223" cy="3306482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>629396</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214733</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90563</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6992096" y="2454551"/>
+          <a:ext cx="271137" cy="360162"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="文本框 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581487</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8730450" y="2521143"/>
+          <a:ext cx="271137" cy="371592"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="椭圆 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="文本框 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="组合 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7831460" y="2034540"/>
+          <a:ext cx="407666" cy="384810"/>
+          <a:chOff x="4962525" y="4191000"/>
+          <a:chExt cx="480775" cy="435636"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="文本框 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4985371" y="4191000"/>
+            <a:ext cx="457929" cy="428600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="椭圆 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4962525" y="4191000"/>
+            <a:ext cx="428625" cy="435636"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391152</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7737</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7854315" y="485775"/>
+          <a:ext cx="271137" cy="360162"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="椭圆 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="文本框 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404487</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2022</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="组合 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7799070" y="1097280"/>
+          <a:ext cx="339717" cy="371592"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="椭圆 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="文本框 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1493,11 +2611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
@@ -1529,7 +2647,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1549,7 +2667,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +2685,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +2702,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
@@ -1602,7 +2720,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +2738,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1637,7 +2755,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +2773,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
@@ -1673,7 +2791,7 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1693,7 +2811,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
@@ -1711,7 +2829,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1728,17 +2846,17 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
@@ -1746,7 +2864,7 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +2882,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +2891,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="F17" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
@@ -1781,7 +2899,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
@@ -1798,17 +2916,17 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="19"/>
@@ -1823,22 +2941,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C23" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>131</v>
@@ -1846,7 +2964,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>112</v>
@@ -1863,22 +2981,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C28" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>131</v>
@@ -1886,34 +3004,34 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -1922,20 +3040,20 @@
     <row r="35" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>131</v>
@@ -1948,34 +3066,34 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
@@ -1987,7 +3105,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -1995,7 +3113,7 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="10">
         <v>1</v>
@@ -2004,7 +3122,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="10">
         <v>1</v>
@@ -2012,7 +3130,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="10">
         <v>1</v>
@@ -2020,7 +3138,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="10">
         <v>1</v>
@@ -2039,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D101"/>
+  <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2059,13 +3177,13 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -2142,7 +3260,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
@@ -2162,7 +3280,7 @@
         <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
@@ -2181,7 +3299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C17" s="24" t="s">
         <v>96</v>
       </c>
@@ -2189,7 +3307,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C18" s="24" t="s">
         <v>98</v>
       </c>
@@ -2197,11 +3315,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C19" s="24"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C20" s="24" t="s">
         <v>100</v>
       </c>
@@ -2209,7 +3327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C21" s="24" t="s">
         <v>101</v>
       </c>
@@ -2217,7 +3335,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
         <v>103</v>
       </c>
@@ -2225,39 +3343,39 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="18"/>
       <c r="C28" s="24" t="s">
         <v>92</v>
@@ -2266,7 +3384,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="18"/>
       <c r="C29" s="24" t="s">
         <v>94</v>
@@ -2274,8 +3392,11 @@
       <c r="D29" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="K29" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="18"/>
       <c r="C30" s="24" t="s">
         <v>96</v>
@@ -2284,7 +3405,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="18"/>
       <c r="C31" s="24" t="s">
         <v>98</v>
@@ -2293,7 +3414,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="18"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
@@ -2340,7 +3461,7 @@
         <v>106</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
@@ -2348,7 +3469,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>91</v>
@@ -2431,7 +3552,7 @@
         <v>105</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
@@ -2440,7 +3561,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
@@ -2451,13 +3572,13 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
@@ -2525,7 +3646,7 @@
         <v>103</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
@@ -2534,7 +3655,7 @@
         <v>105</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
@@ -2543,7 +3664,7 @@
         <v>106</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
@@ -2554,13 +3675,13 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
@@ -2637,7 +3758,7 @@
         <v>105</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
@@ -2646,7 +3767,7 @@
         <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
@@ -2657,7 +3778,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>91</v>
@@ -2726,7 +3847,7 @@
         <v>103</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
@@ -2734,7 +3855,7 @@
         <v>105</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.15">
@@ -2742,18 +3863,18 @@
         <v>106</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
@@ -2761,7 +3882,7 @@
         <v>92</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
@@ -2769,7 +3890,7 @@
         <v>94</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
@@ -2813,7 +3934,7 @@
         <v>103</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
@@ -2829,7 +3950,7 @@
         <v>106</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +3961,930 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:G101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D12" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D16" s="26"/>
+      <c r="E16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D17" s="26"/>
+      <c r="E17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D18" s="26"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="33"/>
+      <c r="C22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="33"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="33"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="33"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="33"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="33"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="33"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="33"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="33"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="33"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="33"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="33"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="33"/>
+      <c r="C34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="33"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="33"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="33"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="33"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="33"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="33"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="33"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="33"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="33"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="33"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="33"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="33"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="33"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="33"/>
+      <c r="C48" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="33"/>
+      <c r="D49" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="33"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="33"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="35">
+        <v>1</v>
+      </c>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="33"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="33"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B54" s="33"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="33"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="33"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="33"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="27"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="27"/>
+      <c r="C60" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D61" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E62" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E63" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E64" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E66" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E67" s="4"/>
+      <c r="F67" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E70" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="K72" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C73" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="K73" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C74" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="K74" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C75" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="K75" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C76" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C82" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C83" s="11"/>
+      <c r="D83" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C84" s="11"/>
+      <c r="E84" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C85" s="11"/>
+      <c r="F85" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C86" s="11"/>
+      <c r="E86" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C87" s="11"/>
+      <c r="F87" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C88" s="11"/>
+      <c r="E88" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C89" s="11"/>
+      <c r="F89" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C92" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D93" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E94" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E95" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E96" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E97" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E98" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D99" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E100" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E101" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="113" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="114" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="115" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="116" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="117" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="118" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="119" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="120" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="121" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65:M66"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/gd/副本内容设计/第五、六章怪物分布.xlsx
+++ b/gd/副本内容设计/第五、六章怪物分布.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="303">
   <si>
     <t>小怪</t>
   </si>
@@ -895,10 +895,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伊米尔（Ymir）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>让我把你冻成冰雕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1044,10 +1040,6 @@
   </si>
   <si>
     <t>破冰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1186,6 +1178,29 @@
   </si>
   <si>
     <t>吐息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于XX%，附加物理和魔法吸收盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击时，若敌方拥有强化效果则伤害量+XX%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊米尔（Ymir）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击</t>
+  </si>
+  <si>
+    <t>Increases attack effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加冰冻效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1408,18 +1423,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1437,18 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2598,7 +2613,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C19" sqref="C13:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2611,11 +2626,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
@@ -2647,7 +2662,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2667,7 +2682,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
@@ -2685,7 +2700,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2717,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
@@ -2720,7 +2735,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -2738,7 +2753,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -2755,7 +2770,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
@@ -2773,7 +2788,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
@@ -2791,7 +2806,7 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2811,7 +2826,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2829,7 +2844,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
@@ -2846,7 +2861,7 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2864,7 +2879,7 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2882,7 +2897,7 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
@@ -2899,7 +2914,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2916,7 +2931,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
@@ -3159,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3561,7 +3576,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
@@ -3767,7 +3782,7 @@
         <v>106</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
@@ -3963,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:G101"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3974,8 +3989,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="32" t="s">
-        <v>229</v>
+      <c r="B1" s="28" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3983,7 +3998,7 @@
         <v>201</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4011,7 +4026,7 @@
     <row r="7" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="11"/>
       <c r="C7" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
@@ -4023,47 +4038,47 @@
     </row>
     <row r="11" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C11" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D12" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>236</v>
       </c>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D13" s="26"/>
       <c r="E13" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="36">
+        <v>238</v>
+      </c>
+      <c r="F14" s="32">
         <v>1</v>
       </c>
       <c r="G14" s="26"/>
@@ -4074,7 +4089,7 @@
         <v>209</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" s="26"/>
     </row>
@@ -4084,7 +4099,7 @@
         <v>210</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -4100,7 +4115,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>221</v>
@@ -4119,43 +4134,43 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>248</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="33"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>213</v>
@@ -4164,51 +4179,51 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="35">
+        <v>249</v>
+      </c>
+      <c r="F25" s="31">
         <v>1</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="33"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>209</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="33"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="33"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4216,12 +4231,12 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="33"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>217</v>
@@ -4230,7 +4245,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="33"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
@@ -4242,24 +4257,30 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="33"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
+      <c r="F31" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="33"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="33"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -4268,43 +4289,43 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="33"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="33"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="33"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>213</v>
@@ -4313,62 +4334,62 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B37" s="33"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="35">
+        <v>249</v>
+      </c>
+      <c r="F37" s="31">
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="33"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>209</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B39" s="33"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="33"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="33"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>217</v>
@@ -4376,7 +4397,7 @@
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -4387,49 +4408,55 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="33"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
+      <c r="F43" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="33"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="33"/>
+      <c r="B45" s="29"/>
       <c r="D45" s="26"/>
       <c r="E45" s="4"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="33"/>
+      <c r="B46" s="29"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="33"/>
+      <c r="B47" s="29"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B48" s="33"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>211</v>
@@ -4440,9 +4467,9 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="33"/>
-      <c r="D49" s="34" t="s">
-        <v>289</v>
+      <c r="B49" s="29"/>
+      <c r="D49" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>206</v>
@@ -4453,7 +4480,7 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="33"/>
+      <c r="B50" s="29"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26" t="s">
         <v>207</v>
@@ -4464,18 +4491,18 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B51" s="33"/>
+      <c r="B51" s="29"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="31">
         <v>1</v>
       </c>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B52" s="33"/>
+      <c r="B52" s="29"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26" t="s">
         <v>209</v>
@@ -4486,18 +4513,18 @@
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="33"/>
+      <c r="B53" s="29"/>
       <c r="D53" s="26"/>
       <c r="E53" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B54" s="33"/>
+      <c r="B54" s="29"/>
       <c r="D54" s="26"/>
       <c r="E54" s="21" t="s">
         <v>215</v>
@@ -4506,7 +4533,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="33"/>
+      <c r="B55" s="29"/>
       <c r="D55" s="26"/>
       <c r="E55" s="4"/>
       <c r="F55" s="10" t="s">
@@ -4517,7 +4544,7 @@
       </c>
     </row>
     <row r="56" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="33"/>
+      <c r="B56" s="29"/>
       <c r="D56" s="26"/>
       <c r="E56" s="4" t="s">
         <v>218</v>
@@ -4526,9 +4553,15 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B57" s="33"/>
+      <c r="B57" s="29"/>
       <c r="D57" s="26"/>
       <c r="E57" s="4"/>
+      <c r="F57" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="58" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="27"/>
@@ -4549,10 +4582,10 @@
     <row r="60" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="27"/>
       <c r="C60" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>211</v>
@@ -4564,7 +4597,7 @@
     </row>
     <row r="61" spans="2:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D61" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>206</v>
@@ -4585,7 +4618,7 @@
       <c r="E63" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="31">
         <v>1</v>
       </c>
     </row>
@@ -4602,7 +4635,7 @@
         <v>210</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4625,6 +4658,12 @@
     </row>
     <row r="69" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E69" s="4"/>
+      <c r="F69" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="70" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E70" s="21" t="s">
@@ -4650,16 +4689,16 @@
         <v>224</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
       <c r="H73" s="26"/>
       <c r="K73" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4667,16 +4706,16 @@
         <v>225</v>
       </c>
       <c r="D74" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
       <c r="K74" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4684,16 +4723,16 @@
         <v>226</v>
       </c>
       <c r="D75" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
       <c r="K75" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4701,17 +4740,17 @@
         <v>227</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
       <c r="H76" s="26"/>
       <c r="I76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="3:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4746,43 +4785,43 @@
     <row r="83" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C83" s="11"/>
       <c r="D83" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C84" s="11"/>
       <c r="E84" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C85" s="11"/>
       <c r="F85" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C86" s="11"/>
       <c r="E86" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C87" s="11"/>
       <c r="F87" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C88" s="11"/>
       <c r="E88" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C89" s="11"/>
       <c r="F89" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4795,60 +4834,60 @@
     </row>
     <row r="92" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C92" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D93" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E94" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E95" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="3:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E96" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E97" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E98" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D99" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E100" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="4:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E101" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G101" s="4"/>
     </row>
